--- a/tools/yolov3.xlsx
+++ b/tools/yolov3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maruyama/Projects/private/public/yolo_various_platforms/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E8D02008-9CDE-7F4F-A975-5CD45A8B46C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35D1C64-EFB8-F84F-9344-A44ABE02EF1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="800" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="500" yWindow="560" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yolov3" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -317,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,8 +503,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -620,39 +644,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="8"/>
+      <left style="thin">
+        <color theme="3"/>
       </left>
-      <right style="medium">
-        <color theme="8"/>
+      <right style="thin">
+        <color theme="3"/>
       </right>
-      <top style="medium">
-        <color theme="8"/>
+      <top style="thin">
+        <color theme="3"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="8"/>
+      <left style="thin">
+        <color theme="3"/>
       </left>
-      <right style="medium">
-        <color theme="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8"/>
-      </left>
-      <right style="medium">
-        <color theme="8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="8"/>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,24 +800,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1158,11 +1188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86:N87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1246,11 +1276,11 @@
         <v>23</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="21" thickBot="1">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1281,10 +1311,10 @@
       <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -1317,8 +1347,8 @@
       <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -1349,10 +1379,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="21" thickBot="1">
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1365,11 +1395,11 @@
       <c r="J6">
         <v>-3</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="21" thickBot="1">
+      <c r="L6" s="4"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1400,10 +1430,10 @@
       <c r="L7" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
@@ -1436,8 +1466,8 @@
       <c r="L8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -1468,10 +1498,10 @@
         <v>7</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="21" thickBot="1">
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1484,9 +1514,9 @@
       <c r="J10">
         <v>-3</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -1519,8 +1549,8 @@
       <c r="L11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -1551,10 +1581,10 @@
         <v>10</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="21" thickBot="1">
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1567,11 +1597,11 @@
       <c r="J13">
         <v>-3</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="21" thickBot="1">
+      <c r="L13" s="4"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1602,10 +1632,10 @@
       <c r="L14" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -1638,8 +1668,8 @@
       <c r="L15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -1670,10 +1700,10 @@
         <v>14</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" ht="21" thickBot="1">
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1686,9 +1716,9 @@
       <c r="J17">
         <v>-3</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -1721,8 +1751,8 @@
       <c r="L18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
@@ -1753,10 +1783,10 @@
         <v>17</v>
       </c>
       <c r="L19" s="4"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" ht="21" thickBot="1">
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1769,9 +1799,9 @@
       <c r="J20">
         <v>-3</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -1804,8 +1834,8 @@
       <c r="L21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
@@ -1836,10 +1866,10 @@
         <v>20</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" ht="21" thickBot="1">
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1852,9 +1882,9 @@
       <c r="J23">
         <v>-3</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -1887,8 +1917,8 @@
       <c r="L24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
@@ -1919,10 +1949,10 @@
         <v>23</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" ht="21" thickBot="1">
+      <c r="M25" s="6"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1935,9 +1965,9 @@
       <c r="J26">
         <v>-3</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" ht="20" customHeight="1">
       <c r="A27" t="s">
@@ -1970,8 +2000,8 @@
       <c r="L27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
@@ -2002,10 +2032,10 @@
         <v>26</v>
       </c>
       <c r="L28" s="4"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" ht="21" thickBot="1">
+      <c r="M28" s="6"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2018,9 +2048,9 @@
       <c r="J29">
         <v>-3</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -2053,8 +2083,8 @@
       <c r="L30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
@@ -2085,10 +2115,10 @@
         <v>29</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" ht="21" thickBot="1">
+      <c r="M31" s="6"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2101,9 +2131,9 @@
       <c r="J32">
         <v>-3</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
@@ -2136,8 +2166,8 @@
       <c r="L33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
@@ -2168,10 +2198,10 @@
         <v>32</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" ht="21" thickBot="1">
+      <c r="M34" s="6"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2184,9 +2214,9 @@
       <c r="J35">
         <v>-3</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
@@ -2219,8 +2249,8 @@
       <c r="L36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
@@ -2251,27 +2281,27 @@
         <v>35</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" ht="21" thickBot="1">
+      <c r="M37" s="6"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="10">
         <v>36</v>
       </c>
       <c r="J38">
         <v>-3</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" ht="21" thickBot="1">
+      <c r="L38" s="4"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2302,10 +2332,10 @@
       <c r="L39" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N39" s="1"/>
+      <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -2338,8 +2368,8 @@
       <c r="L40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
@@ -2370,10 +2400,10 @@
         <v>39</v>
       </c>
       <c r="L41" s="4"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" ht="21" thickBot="1">
+      <c r="M41" s="6"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2386,9 +2416,9 @@
       <c r="J42">
         <v>-3</v>
       </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
@@ -2421,8 +2451,8 @@
       <c r="L43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
@@ -2453,10 +2483,10 @@
         <v>42</v>
       </c>
       <c r="L44" s="4"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" ht="21" thickBot="1">
+      <c r="M44" s="6"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2469,9 +2499,9 @@
       <c r="J45">
         <v>-3</v>
       </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
@@ -2504,8 +2534,8 @@
       <c r="L46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="7"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
@@ -2536,10 +2566,10 @@
         <v>45</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" ht="21" thickBot="1">
+      <c r="M47" s="6"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2552,9 +2582,9 @@
       <c r="J48">
         <v>-3</v>
       </c>
-      <c r="L48" s="5"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
@@ -2587,8 +2617,8 @@
       <c r="L49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
@@ -2619,10 +2649,10 @@
         <v>48</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" ht="21" thickBot="1">
+      <c r="M50" s="6"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2635,9 +2665,9 @@
       <c r="J51">
         <v>-3</v>
       </c>
-      <c r="L51" s="5"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
@@ -2670,8 +2700,8 @@
       <c r="L52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
@@ -2702,10 +2732,10 @@
         <v>51</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" ht="21" thickBot="1">
+      <c r="M53" s="6"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2718,9 +2748,9 @@
       <c r="J54">
         <v>-3</v>
       </c>
-      <c r="L54" s="5"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
@@ -2753,8 +2783,8 @@
       <c r="L55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="7"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
@@ -2785,10 +2815,10 @@
         <v>54</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" ht="21" thickBot="1">
+      <c r="M56" s="6"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2801,9 +2831,9 @@
       <c r="J57">
         <v>-3</v>
       </c>
-      <c r="L57" s="5"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
@@ -2836,8 +2866,8 @@
       <c r="L58" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
@@ -2868,10 +2898,10 @@
         <v>57</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" ht="21" thickBot="1">
+      <c r="M59" s="6"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2884,9 +2914,9 @@
       <c r="J60">
         <v>-3</v>
       </c>
-      <c r="L60" s="5"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="7"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
@@ -2919,8 +2949,8 @@
       <c r="L61" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
@@ -2951,27 +2981,27 @@
         <v>60</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" ht="21" thickBot="1">
+      <c r="M62" s="6"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>13</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="10">
         <v>61</v>
       </c>
       <c r="J63">
         <v>-3</v>
       </c>
-      <c r="L63" s="5"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" ht="21" thickBot="1">
+      <c r="L63" s="4"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -3002,10 +3032,10 @@
       <c r="L64" t="s">
         <v>24</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="1"/>
+      <c r="N64" s="7"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
@@ -3038,8 +3068,8 @@
       <c r="L65" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="7"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
@@ -3070,10 +3100,10 @@
         <v>64</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" ht="21" thickBot="1">
+      <c r="M66" s="6"/>
+      <c r="N66" s="7"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3086,9 +3116,9 @@
       <c r="J67">
         <v>-3</v>
       </c>
-      <c r="L67" s="5"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
@@ -3121,8 +3151,8 @@
       <c r="L68" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
@@ -3153,10 +3183,10 @@
         <v>67</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" ht="21" thickBot="1">
+      <c r="M69" s="6"/>
+      <c r="N69" s="7"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -3169,9 +3199,9 @@
       <c r="J70">
         <v>-3</v>
       </c>
-      <c r="L70" s="5"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="7"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
@@ -3204,8 +3234,8 @@
       <c r="L71" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="7"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
@@ -3236,10 +3266,10 @@
         <v>70</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="1:14" ht="21" thickBot="1">
+      <c r="M72" s="6"/>
+      <c r="N72" s="7"/>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -3252,9 +3282,9 @@
       <c r="J73">
         <v>-3</v>
       </c>
-      <c r="L73" s="5"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="7"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
@@ -3287,8 +3317,8 @@
       <c r="L74" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="7"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
@@ -3319,10 +3349,10 @@
         <v>73</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" ht="21" thickBot="1">
+      <c r="M75" s="6"/>
+      <c r="N75" s="7"/>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -3335,9 +3365,9 @@
       <c r="J76">
         <v>-3</v>
       </c>
-      <c r="L76" s="5"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
@@ -3367,11 +3397,11 @@
       <c r="I77">
         <v>75</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="L77" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
@@ -3401,9 +3431,9 @@
       <c r="I78">
         <v>76</v>
       </c>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
@@ -3433,9 +3463,9 @@
       <c r="I79">
         <v>77</v>
       </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
@@ -3465,9 +3495,9 @@
       <c r="I80">
         <v>78</v>
       </c>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
@@ -3494,12 +3524,12 @@
       <c r="H81">
         <v>1</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="10">
         <v>79</v>
       </c>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
@@ -3529,11 +3559,11 @@
       <c r="I82">
         <v>80</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="L82" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
@@ -3560,9 +3590,9 @@
       <c r="I83">
         <v>81</v>
       </c>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
@@ -3571,9 +3601,9 @@
       <c r="I84">
         <v>82</v>
       </c>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
       <c r="O84" t="s">
         <v>30</v>
       </c>
@@ -3620,11 +3650,11 @@
       <c r="I86">
         <v>84</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="L86" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
@@ -3636,9 +3666,9 @@
       <c r="I87">
         <v>85</v>
       </c>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
@@ -3682,11 +3712,11 @@
       <c r="I89">
         <v>87</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="L89" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
@@ -3716,9 +3746,9 @@
       <c r="I90">
         <v>88</v>
       </c>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
@@ -3748,9 +3778,9 @@
       <c r="I91">
         <v>89</v>
       </c>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
@@ -3780,9 +3810,9 @@
       <c r="I92">
         <v>90</v>
       </c>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
@@ -3809,12 +3839,12 @@
       <c r="H93">
         <v>1</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="10">
         <v>91</v>
       </c>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
@@ -3844,11 +3874,11 @@
       <c r="I94">
         <v>92</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="L94" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="s">
@@ -3875,9 +3905,9 @@
       <c r="I95">
         <v>93</v>
       </c>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="s">
@@ -3886,9 +3916,9 @@
       <c r="I96">
         <v>94</v>
       </c>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
       <c r="O96" t="s">
         <v>31</v>
       </c>
@@ -3935,11 +3965,11 @@
       <c r="I98">
         <v>96</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="L98" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="s">
@@ -3951,9 +3981,9 @@
       <c r="I99">
         <v>97</v>
       </c>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="s">
@@ -3997,11 +4027,11 @@
       <c r="I101">
         <v>99</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="L101" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" t="s">
@@ -4031,9 +4061,9 @@
       <c r="I102">
         <v>100</v>
       </c>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
@@ -4063,9 +4093,9 @@
       <c r="I103">
         <v>101</v>
       </c>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" t="s">
@@ -4095,9 +4125,9 @@
       <c r="I104">
         <v>102</v>
       </c>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" t="s">
@@ -4127,9 +4157,9 @@
       <c r="I105">
         <v>103</v>
       </c>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" t="s">
@@ -4159,11 +4189,11 @@
       <c r="I106">
         <v>104</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="L106" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" t="s">
@@ -4190,9 +4220,9 @@
       <c r="I107">
         <v>105</v>
       </c>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" t="s">
@@ -4201,15 +4231,38 @@
       <c r="I108">
         <v>106</v>
       </c>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
       <c r="O108" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L58:L60"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="L55:L57"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="M7:M13"/>
+    <mergeCell ref="M14:M38"/>
+    <mergeCell ref="M39:M63"/>
+    <mergeCell ref="M64:M76"/>
     <mergeCell ref="L94:N96"/>
     <mergeCell ref="L98:N99"/>
     <mergeCell ref="L101:N105"/>
@@ -4226,29 +4279,6 @@
     <mergeCell ref="L68:L70"/>
     <mergeCell ref="L71:L73"/>
     <mergeCell ref="L74:L76"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="M7:M13"/>
-    <mergeCell ref="M14:M38"/>
-    <mergeCell ref="M39:M63"/>
-    <mergeCell ref="M64:M76"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="L55:L57"/>
-    <mergeCell ref="L58:L60"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L21:L23"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
